--- a/app/Files/PlanContable.xlsx
+++ b/app/Files/PlanContable.xlsx
@@ -44,7 +44,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
-    <numFmt numFmtId="165" formatCode="[$$-300A]#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="_ [$$-300A]* #,##0.0000_ ;_ [$$-300A]* \-#,##0.0000_ ;_ [$$-300A]* &quot;-&quot;????_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -123,6 +122,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,22 +407,22 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2"/>
@@ -434,13 +434,13 @@
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
